--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/20/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-11.6963</v>
+        <v>-11.7504</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.963499999999998</v>
+        <v>6.017000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.855199999999996</v>
+        <v>-6.930399999999995</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.386699999999998</v>
+        <v>-7.341000000000005</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.566500000000002</v>
+        <v>5.799000000000003</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>6.314900000000002</v>
+        <v>6.037700000000002</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.50869999999999</v>
+        <v>-12.1597</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.552599999999998</v>
+        <v>9.570299999999998</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.988100000000012</v>
+        <v>8.980200000000009</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -842,10 +842,10 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.48789999999999</v>
+        <v>-12.76299999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.961199999999996</v>
+        <v>-7.803799999999999</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -856,13 +856,13 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.2995</v>
+        <v>5.391600000000003</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.3166</v>
+        <v>-12.9335</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.803999999999997</v>
+        <v>-8.69419999999999</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.377800000000003</v>
+        <v>6.145100000000002</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.6269</v>
+        <v>-13.1607</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.058100000000004</v>
+        <v>5.105500000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-13.01059999999999</v>
+        <v>-12.70189999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.2473</v>
+        <v>-13.29589999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.0714</v>
+        <v>-12.3468</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.158999999999995</v>
+        <v>9.043199999999995</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1134,7 +1134,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.801699999999998</v>
+        <v>-7.967299999999995</v>
       </c>
       <c r="E41" t="n">
         <v>16.34</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.62820000000001</v>
+        <v>-12.6342</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.7372</v>
+        <v>-11.7131</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.477600000000001</v>
+        <v>-8.309600000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.297</v>
+        <v>-11.5102</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.34529999999999</v>
+        <v>-11.44689999999999</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1332,13 +1332,13 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>5.158</v>
+        <v>5.189699999999999</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-5.895100000000002</v>
+        <v>-5.979800000000004</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.79540000000001</v>
+        <v>-13.6077</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,10 +1386,10 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.4752</v>
+        <v>-12.6509</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.458500000000001</v>
+        <v>-8.324400000000002</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1400,13 +1400,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.346899999999998</v>
+        <v>5.0928</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.5362</v>
+        <v>-13.08439999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.884899999999993</v>
+        <v>-8.723099999999995</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.343000000000002</v>
+        <v>-8.185100000000004</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.072799999999997</v>
+        <v>4.768499999999996</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1454,7 +1454,7 @@
         <v>3.07</v>
       </c>
       <c r="C60" t="n">
-        <v>-13.75019999999999</v>
+        <v>-13.76069999999999</v>
       </c>
       <c r="D60" t="n">
         <v>-9.630000000000001</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.798799999999999</v>
+        <v>-7.940799999999997</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.932800000000007</v>
+        <v>-7.931100000000004</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.9971</v>
+        <v>-7.9337</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.631400000000002</v>
+        <v>5.701700000000003</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.586299999999995</v>
+        <v>5.566299999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.684799999999995</v>
+        <v>-7.779799999999995</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.343099999999997</v>
+        <v>-7.388199999999999</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.5774</v>
+        <v>-12.9928</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.4014</v>
+        <v>-12.3507</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>8.835699999999997</v>
+        <v>8.821800000000003</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.770700000000001</v>
+        <v>5.514599999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.047599999999999</v>
+        <v>-7.950499999999997</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1947,10 +1947,10 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.7332</v>
+        <v>-10.64950000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.706500000000001</v>
+        <v>-5.713000000000003</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.9403</v>
+        <v>-12.6786</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>4.910999999999999</v>
+        <v>4.953099999999997</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.4917</v>
+        <v>-11.3271</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.619199999999998</v>
+        <v>6.101800000000003</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.555199999999996</v>
+        <v>-8.469900000000001</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2131,13 +2131,13 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>4.909400000000001</v>
+        <v>4.7918</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.510200000000005</v>
+        <v>-8.378900000000005</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.962899999999998</v>
+        <v>-7.938999999999993</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
